--- a/v.3.1.0/enacbe.xlsx
+++ b/v.3.1.0/enacbe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D3DC1-277E-4075-898D-235982A4A396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E55E5-3C65-4F60-8B91-E5B84F159673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,12 @@
     <t>Metoda</t>
   </si>
   <si>
-    <t>1.1554 - (0.000761 * WC) - (0.00170 * TR) - (0.000532 * AY)</t>
-  </si>
-  <si>
     <t>eBD</t>
   </si>
   <si>
     <t>eBF</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.735 * (TR + CA)) + 1                                      </t>
-  </si>
-  <si>
-    <t>1.0994921 - (0.0009929 * (TR + IC + TH)) + (0.0000023 * (TR + IC + TH) * (TR + IC + TH)) - (0.0001392 * AY)</t>
-  </si>
-  <si>
-    <t>(((0.0581 * AY) + (0.507 * BM) - (0.256 * BH * 100) + (0.165 * HC) + 8.68) / BM) * 100</t>
-  </si>
-  <si>
-    <t>M % Lean 96 4 Brožek 63</t>
-  </si>
-  <si>
-    <t>M % Slaughter 1</t>
-  </si>
-  <si>
-    <t>F % Jackson 80 7 Siri 61</t>
-  </si>
-  <si>
-    <t>F % Al-Gindan 15 fat 1</t>
-  </si>
-  <si>
-    <t>(495 /eBD) - 450</t>
-  </si>
-  <si>
-    <t>100 *(4.570/ eBD - 4.142)</t>
-  </si>
-  <si>
     <t>spol</t>
   </si>
   <si>
@@ -63,13 +33,43 @@
   </si>
   <si>
     <t>Ž</t>
+  </si>
+  <si>
+    <t>495 /eBD</t>
+  </si>
+  <si>
+    <t>metoda0</t>
+  </si>
+  <si>
+    <t>metoda1</t>
+  </si>
+  <si>
+    <t>metoda2</t>
+  </si>
+  <si>
+    <t>metoda3</t>
+  </si>
+  <si>
+    <t>TH - (0.001493 * IC)</t>
+  </si>
+  <si>
+    <t>0.21 * (AB + TR+ SS)</t>
+  </si>
+  <si>
+    <t>1.1145 - (0.000465 * AY)</t>
+  </si>
+  <si>
+    <t>4.570/ eBD - 4.142</t>
+  </si>
+  <si>
+    <t>(15 * BM) + 8 * (AB + TR+ SS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,15 +127,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -141,14 +144,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -157,14 +180,7 @@
     <cellStyle name="Navadno 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -451,108 +467,110 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="58.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="58.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="11"/>
+      <c r="F6" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsBlanks" dxfId="1" priority="58" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="58" stopIfTrue="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/v.3.1.0/enacbe.xlsx
+++ b/v.3.1.0/enacbe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E55E5-3C65-4F60-8B91-E5B84F159673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A2D057-9AE1-43E9-8ED5-AD5C75116285}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
